--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lefty2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lefty2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Lefty2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.134743</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>0.08631641071433332</v>
+        <v>0.06985854137966667</v>
       </c>
       <c r="R2">
-        <v>0.5178984642859999</v>
+        <v>0.419151248278</v>
       </c>
       <c r="S2">
-        <v>0.2963026861879742</v>
+        <v>0.2953988604134244</v>
       </c>
       <c r="T2">
-        <v>0.2443427896918877</v>
+        <v>0.2680652983920407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.134743</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
         <v>0.006841336281888889</v>
@@ -641,10 +641,10 @@
         <v>0.061572026537</v>
       </c>
       <c r="S3">
-        <v>0.02348459928608122</v>
+        <v>0.02892878811184584</v>
       </c>
       <c r="T3">
-        <v>0.02904947932559493</v>
+        <v>0.03937796614957587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,40 +673,40 @@
         <v>0.134743</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.01845658711088889</v>
+        <v>0.013005529103</v>
       </c>
       <c r="R4">
-        <v>0.166109283998</v>
+        <v>0.117049761927</v>
       </c>
       <c r="S4">
-        <v>0.06335685524410488</v>
+        <v>0.05499425553734855</v>
       </c>
       <c r="T4">
-        <v>0.07836981309019599</v>
+        <v>0.07485837030567057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.134743</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>0.08109940878316667</v>
+        <v>0.07325905047066666</v>
       </c>
       <c r="R5">
-        <v>0.486596452699</v>
+        <v>0.439554302824</v>
       </c>
       <c r="S5">
-        <v>0.2783940211582334</v>
+        <v>0.3097780113442691</v>
       </c>
       <c r="T5">
-        <v>0.2295746037219218</v>
+        <v>0.2811139316179999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +797,40 @@
         <v>0.134743</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>0.05377867107433334</v>
+        <v>0.001823282390222222</v>
       </c>
       <c r="R6">
-        <v>0.4840080396690001</v>
+        <v>0.016409541512</v>
       </c>
       <c r="S6">
-        <v>0.1846087501446399</v>
+        <v>0.007709802261062882</v>
       </c>
       <c r="T6">
-        <v>0.2283533989796044</v>
+        <v>0.01049460942789167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.134743</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7602076222178341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.04481918980388889</v>
+        <v>0.01499289852433333</v>
       </c>
       <c r="R7">
-        <v>0.403372708235</v>
+        <v>0.134936086719</v>
       </c>
       <c r="S7">
-        <v>0.1538530879789666</v>
+        <v>0.0633979045498833</v>
       </c>
       <c r="T7">
-        <v>0.1903099151907953</v>
+        <v>0.08629744632465543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.042502</v>
+      </c>
+      <c r="I8">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J8">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.555373</v>
+      </c>
+      <c r="N8">
+        <v>3.110746</v>
+      </c>
+      <c r="O8">
+        <v>0.3885765569564089</v>
+      </c>
+      <c r="P8">
+        <v>0.3526211663203079</v>
+      </c>
+      <c r="Q8">
+        <v>0.02203548774866666</v>
+      </c>
+      <c r="R8">
+        <v>0.132212926492</v>
+      </c>
+      <c r="S8">
+        <v>0.09317769654298452</v>
+      </c>
+      <c r="T8">
+        <v>0.08455586792826725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.042502</v>
+      </c>
+      <c r="I9">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J9">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.456959</v>
+      </c>
+      <c r="O9">
+        <v>0.0380537990759009</v>
+      </c>
+      <c r="P9">
+        <v>0.05179896254485632</v>
+      </c>
+      <c r="Q9">
+        <v>0.002157963490888889</v>
+      </c>
+      <c r="R9">
+        <v>0.019421671418</v>
+      </c>
+      <c r="S9">
+        <v>0.009125010964055066</v>
+      </c>
+      <c r="T9">
+        <v>0.01242099639528045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.042502</v>
+      </c>
+      <c r="I10">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J10">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.289563</v>
+      </c>
+      <c r="N10">
+        <v>0.868689</v>
+      </c>
+      <c r="O10">
+        <v>0.07234109989177429</v>
+      </c>
+      <c r="P10">
+        <v>0.09847095466798705</v>
+      </c>
+      <c r="Q10">
+        <v>0.004102335542</v>
+      </c>
+      <c r="R10">
+        <v>0.036921019878</v>
+      </c>
+      <c r="S10">
+        <v>0.01734684435442574</v>
+      </c>
+      <c r="T10">
+        <v>0.02361258436231649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.042502</v>
+      </c>
+      <c r="I11">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J11">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.631084</v>
+      </c>
+      <c r="N11">
+        <v>3.262168</v>
+      </c>
+      <c r="O11">
+        <v>0.4074913251205256</v>
+      </c>
+      <c r="P11">
+        <v>0.3697857314267338</v>
+      </c>
+      <c r="Q11">
+        <v>0.02310811072266666</v>
+      </c>
+      <c r="R11">
+        <v>0.138648664336</v>
+      </c>
+      <c r="S11">
+        <v>0.09771331377625647</v>
+      </c>
+      <c r="T11">
+        <v>0.08867179980873389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.042502</v>
+      </c>
+      <c r="I12">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J12">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04059466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.121784</v>
+      </c>
+      <c r="O12">
+        <v>0.01014170607573002</v>
+      </c>
+      <c r="P12">
+        <v>0.01380492528774525</v>
+      </c>
+      <c r="Q12">
+        <v>0.0005751181742222222</v>
+      </c>
+      <c r="R12">
+        <v>0.005176063568</v>
+      </c>
+      <c r="S12">
+        <v>0.002431903814667141</v>
+      </c>
+      <c r="T12">
+        <v>0.003310315859853585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01416733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.042502</v>
+      </c>
+      <c r="I13">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="J13">
+        <v>0.2397923777821659</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.333811</v>
+      </c>
+      <c r="N13">
+        <v>1.001433</v>
+      </c>
+      <c r="O13">
+        <v>0.08339551287966027</v>
+      </c>
+      <c r="P13">
+        <v>0.1135182597523697</v>
+      </c>
+      <c r="Q13">
+        <v>0.004729211707333333</v>
+      </c>
+      <c r="R13">
+        <v>0.042562905366</v>
+      </c>
+      <c r="S13">
+        <v>0.01999760832977698</v>
+      </c>
+      <c r="T13">
+        <v>0.02722081342771428</v>
       </c>
     </row>
   </sheetData>
